--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\700543\Sotreq\Darlan Monteiro - Desenvolvimento\status_project\STATUS-DE-COMUNICACAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5A2FDD-40BC-4624-A5E1-8E2CC110FC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F0481F-6BEE-474B-8442-46A54322DFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A5" sqref="A5:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,37 +679,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -723,6 +723,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3507f5ad-155e-4a06-8dc0-2b64038b46b7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b06b84b9-f542-449b-8b93-9e89166b9480" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010045BA7E4D780EAE42A37D6F8C1A49608E" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4cc85f28385ad9aa4feaf1e5a101789d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3507f5ad-155e-4a06-8dc0-2b64038b46b7" xmlns:ns3="b06b84b9-f542-449b-8b93-9e89166b9480" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e1ecea972f00b60911b6311a5ade6ca1" ns2:_="" ns3:_="">
     <xsd:import namespace="3507f5ad-155e-4a06-8dc0-2b64038b46b7"/>
@@ -957,27 +977,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3507f5ad-155e-4a06-8dc0-2b64038b46b7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b06b84b9-f542-449b-8b93-9e89166b9480" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D848A61B-71DE-4A15-BFAF-84FA92AE61F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E4530B-9FBF-4C17-91D2-4949D659C036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3507f5ad-155e-4a06-8dc0-2b64038b46b7"/>
+    <ds:schemaRef ds:uri="b06b84b9-f542-449b-8b93-9e89166b9480"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD46B981-9627-468A-9A6C-D4ED1EC5B2B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -994,23 +1013,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E4530B-9FBF-4C17-91D2-4949D659C036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3507f5ad-155e-4a06-8dc0-2b64038b46b7"/>
-    <ds:schemaRef ds:uri="b06b84b9-f542-449b-8b93-9e89166b9480"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D848A61B-71DE-4A15-BFAF-84FA92AE61F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>